--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-26_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-26_valid.xlsx
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="O49">
         <v>269</v>
@@ -16639,7 +16639,7 @@
         <v>0</v>
       </c>
       <c r="AZ49">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="BA49">
         <v>413.8461538461538</v>
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="CL49">
-        <v>0.1952941176470588</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="CM49">
         <v>0.5173076923076922</v>
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="DA49">
-        <v>0.4051762275157996</v>
+        <v>0.4072422246463592</v>
       </c>
     </row>
     <row r="50" spans="1:105">
@@ -20963,7 +20963,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>2513</v>
+        <v>2652</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>409.7282608695652</v>
+        <v>432.3913043478261</v>
       </c>
       <c r="BA63">
         <v>0</v>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="CL63">
-        <v>0.4820332480818414</v>
+        <v>0.5086956521739131</v>
       </c>
       <c r="CM63">
         <v>0</v>
@@ -21236,7 +21236,7 @@
         <v>0</v>
       </c>
       <c r="DA63">
-        <v>0.4821760283060593</v>
+        <v>0.5067669172932331</v>
       </c>
     </row>
     <row r="64" spans="1:105">
@@ -23499,7 +23499,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -23613,7 +23613,7 @@
         <v>0</v>
       </c>
       <c r="AZ71">
-        <v>422.2222222222222</v>
+        <v>822.2222222222222</v>
       </c>
       <c r="BA71">
         <v>0</v>
@@ -23727,7 +23727,7 @@
         <v>0</v>
       </c>
       <c r="CL71">
-        <v>0.4967320261437909</v>
+        <v>0.9673202614379084</v>
       </c>
       <c r="CM71">
         <v>0</v>
@@ -23772,7 +23772,7 @@
         <v>0.1705035971223021</v>
       </c>
       <c r="DA71">
-        <v>0.144967830882353</v>
+        <v>0.1946001838235294</v>
       </c>
     </row>
     <row r="72" spans="1:105">
